--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4687.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4687.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4687</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Simi Singh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1129,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1788,7 +1852,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1888,7 +1951,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1936,7 +1998,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -1944,7 +2005,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1996,7 +2057,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2048,7 +2109,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2100,7 +2161,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2140,7 +2201,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -2148,7 +2208,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2200,7 +2260,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2252,7 +2312,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2291,7 +2351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2313,7 +2373,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2350,7 +2410,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2387,7 +2447,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2424,7 +2484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4113</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2461,7 +2521,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2498,7 +2558,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2535,7 +2595,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2572,7 +2632,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2609,7 +2669,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2646,7 +2706,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2683,7 +2743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2720,7 +2780,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2757,7 +2817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2794,7 +2854,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2831,7 +2891,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2868,7 +2928,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2905,7 +2965,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2942,7 +3002,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2979,7 +3039,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3016,7 +3076,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3053,7 +3113,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3090,7 +3150,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3127,7 +3187,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3164,7 +3224,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3201,7 +3261,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3238,7 +3298,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3275,7 +3335,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3312,7 +3372,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3349,7 +3409,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3386,7 +3446,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3423,7 +3483,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3449,6 +3509,565 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>2/51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14.35%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.79%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.68%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.49%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.02%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.70%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.20%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.88%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4687.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4687.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3659,10 +3660,6 @@
           <t>4426</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3858,9 +3855,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3903,10 +3897,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3922,9 +3912,6 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3937,10 +3924,6 @@
           <t>4478</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3983,10 +3966,6 @@
           <t>4494</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4002,9 +3981,6 @@
       <c r="B19" t="n">
         <v>8</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4068,6 +4044,346 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4687.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4687.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1130,6 +1128,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -1142,7 +1141,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1853,6 +1852,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -1952,6 +1952,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1999,6 +2000,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -2202,6 +2204,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -3516,878 +3519,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.78%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>14.35%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.93%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11.79%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.68%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.49%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.02%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.70%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>23.20%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.88%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.32%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.41%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4262</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4267</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>